--- a/Code/Results/Cases/Case_2_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.044564576707264</v>
+        <v>1.068669265048171</v>
       </c>
       <c r="D2">
-        <v>1.056658207918936</v>
+        <v>1.070453912345782</v>
       </c>
       <c r="E2">
-        <v>1.043354744101731</v>
+        <v>1.070370114642192</v>
       </c>
       <c r="F2">
-        <v>1.058407774577454</v>
+        <v>1.081441882673263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069144391322645</v>
+        <v>1.058013189309711</v>
       </c>
       <c r="J2">
-        <v>1.065489432096073</v>
+        <v>1.073607896811492</v>
       </c>
       <c r="K2">
-        <v>1.06738084837509</v>
+        <v>1.07315370785997</v>
       </c>
       <c r="L2">
-        <v>1.054241397712046</v>
+        <v>1.073070133654963</v>
       </c>
       <c r="M2">
-        <v>1.06910922631259</v>
+        <v>1.084112696005698</v>
       </c>
       <c r="N2">
-        <v>1.067002549302996</v>
+        <v>1.075132543169511</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.050681515034603</v>
+        <v>1.069899380881899</v>
       </c>
       <c r="D3">
-        <v>1.061485374355769</v>
+        <v>1.071438181874338</v>
       </c>
       <c r="E3">
-        <v>1.048605428378681</v>
+        <v>1.07150401731068</v>
       </c>
       <c r="F3">
-        <v>1.063879382641767</v>
+        <v>1.082606192036813</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071707485657549</v>
+        <v>1.058443955918806</v>
       </c>
       <c r="J3">
-        <v>1.069879828350086</v>
+        <v>1.074493543146562</v>
       </c>
       <c r="K3">
-        <v>1.071387638410258</v>
+        <v>1.073953926814216</v>
       </c>
       <c r="L3">
-        <v>1.058651988879408</v>
+        <v>1.074019599382579</v>
       </c>
       <c r="M3">
-        <v>1.073755299265324</v>
+        <v>1.085094613439919</v>
       </c>
       <c r="N3">
-        <v>1.071399180423274</v>
+        <v>1.076019447223962</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.054539982749321</v>
+        <v>1.070694910225125</v>
       </c>
       <c r="D4">
-        <v>1.064532974286544</v>
+        <v>1.072074660466521</v>
       </c>
       <c r="E4">
-        <v>1.051927045082247</v>
+        <v>1.072237900776096</v>
       </c>
       <c r="F4">
-        <v>1.067338582568314</v>
+        <v>1.083359658404341</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.073313189464069</v>
+        <v>1.058721165755449</v>
       </c>
       <c r="J4">
-        <v>1.072644452297999</v>
+        <v>1.075065622461784</v>
       </c>
       <c r="K4">
-        <v>1.073910268206655</v>
+        <v>1.074470693502606</v>
       </c>
       <c r="L4">
-        <v>1.06143668729337</v>
+        <v>1.074633550351382</v>
       </c>
       <c r="M4">
-        <v>1.076686939502751</v>
+        <v>1.085729474036999</v>
       </c>
       <c r="N4">
-        <v>1.0741677304543</v>
+        <v>1.076592338957431</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.056139319558273</v>
+        <v>1.071029248169691</v>
       </c>
       <c r="D5">
-        <v>1.065796787811612</v>
+        <v>1.072342139121407</v>
       </c>
       <c r="E5">
-        <v>1.053306072804626</v>
+        <v>1.07254646792852</v>
       </c>
       <c r="F5">
-        <v>1.068774225106521</v>
+        <v>1.083676436253126</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.073976058890068</v>
+        <v>1.058837340457921</v>
       </c>
       <c r="J5">
-        <v>1.073789203379066</v>
+        <v>1.075305888250761</v>
       </c>
       <c r="K5">
-        <v>1.074954698473479</v>
+        <v>1.074687697151383</v>
       </c>
       <c r="L5">
-        <v>1.062591491540156</v>
+        <v>1.074891556687947</v>
       </c>
       <c r="M5">
-        <v>1.077902276315619</v>
+        <v>1.085996249633062</v>
       </c>
       <c r="N5">
-        <v>1.075314107213208</v>
+        <v>1.076832945951387</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.056406550535064</v>
+        <v>1.071085379030624</v>
       </c>
       <c r="D6">
-        <v>1.066007989023328</v>
+        <v>1.072387044312013</v>
       </c>
       <c r="E6">
-        <v>1.053536620709073</v>
+        <v>1.072598280241405</v>
       </c>
       <c r="F6">
-        <v>1.069014208711481</v>
+        <v>1.083729625894382</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074086657101493</v>
+        <v>1.058856825360458</v>
       </c>
       <c r="J6">
-        <v>1.073980407252664</v>
+        <v>1.075346216114396</v>
       </c>
       <c r="K6">
-        <v>1.075129138798382</v>
+        <v>1.074724118681557</v>
       </c>
       <c r="L6">
-        <v>1.062784476272562</v>
+        <v>1.074934871335469</v>
       </c>
       <c r="M6">
-        <v>1.078105353531441</v>
+        <v>1.086041035440857</v>
       </c>
       <c r="N6">
-        <v>1.075505582618237</v>
+        <v>1.076873331085214</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.054561441230771</v>
+        <v>1.070699378065424</v>
       </c>
       <c r="D7">
-        <v>1.064549928798344</v>
+        <v>1.072078234908936</v>
       </c>
       <c r="E7">
-        <v>1.051945538991269</v>
+        <v>1.072242023696795</v>
       </c>
       <c r="F7">
-        <v>1.067357837705007</v>
+        <v>1.083363891122874</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07332209397251</v>
+        <v>1.058722719518055</v>
       </c>
       <c r="J7">
-        <v>1.072659816300407</v>
+        <v>1.075068833831995</v>
       </c>
       <c r="K7">
-        <v>1.073924286260779</v>
+        <v>1.074473594077489</v>
       </c>
       <c r="L7">
-        <v>1.061452179365421</v>
+        <v>1.074636998230879</v>
       </c>
       <c r="M7">
-        <v>1.076703245219213</v>
+        <v>1.085733039174734</v>
       </c>
       <c r="N7">
-        <v>1.074183116275355</v>
+        <v>1.076595554888155</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.046653121932437</v>
+        <v>1.069085080458847</v>
       </c>
       <c r="D8">
-        <v>1.058305768449875</v>
+        <v>1.070786636326255</v>
       </c>
       <c r="E8">
-        <v>1.045145454883977</v>
+        <v>1.070753287349999</v>
       </c>
       <c r="F8">
-        <v>1.060274297046271</v>
+        <v>1.081835350649703</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070021824123774</v>
+        <v>1.058159085117703</v>
       </c>
       <c r="J8">
-        <v>1.066989449430781</v>
+        <v>1.073907411600023</v>
       </c>
       <c r="K8">
-        <v>1.068749887446982</v>
+        <v>1.073424359251934</v>
       </c>
       <c r="L8">
-        <v>1.055746749090392</v>
+        <v>1.073391097041646</v>
       </c>
       <c r="M8">
-        <v>1.070695320805043</v>
+        <v>1.084444645050827</v>
       </c>
       <c r="N8">
-        <v>1.068504696834373</v>
+        <v>1.075432483303397</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.031902218694751</v>
+        <v>1.066237028173789</v>
       </c>
       <c r="D9">
-        <v>1.046683947004595</v>
+        <v>1.06850748705325</v>
       </c>
       <c r="E9">
-        <v>1.032542707460663</v>
+        <v>1.068131210865493</v>
       </c>
       <c r="F9">
-        <v>1.047127978828074</v>
+        <v>1.079142421593573</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063779205759306</v>
+        <v>1.057154175347892</v>
       </c>
       <c r="J9">
-        <v>1.056376627425609</v>
+        <v>1.071853168756838</v>
       </c>
       <c r="K9">
-        <v>1.05906244108476</v>
+        <v>1.071567544455901</v>
       </c>
       <c r="L9">
-        <v>1.045128979145328</v>
+        <v>1.071192415985923</v>
       </c>
       <c r="M9">
-        <v>1.059500063886766</v>
+        <v>1.082170400954015</v>
       </c>
       <c r="N9">
-        <v>1.057876803404646</v>
+        <v>1.07337532319975</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.021439517618233</v>
+        <v>1.06433586232277</v>
       </c>
       <c r="D10">
-        <v>1.038462775786449</v>
+        <v>1.066985838034162</v>
       </c>
       <c r="E10">
-        <v>1.02366512523313</v>
+        <v>1.066383932700929</v>
       </c>
       <c r="F10">
-        <v>1.037853787958508</v>
+        <v>1.077347420745972</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05929542790856</v>
+        <v>1.056476310044812</v>
       </c>
       <c r="J10">
-        <v>1.048827595148388</v>
+        <v>1.070478427967093</v>
       </c>
       <c r="K10">
-        <v>1.052170644717679</v>
+        <v>1.070324262126368</v>
       </c>
       <c r="L10">
-        <v>1.037619852076315</v>
+        <v>1.069724373503026</v>
       </c>
       <c r="M10">
-        <v>1.051571637577076</v>
+        <v>1.080651515375335</v>
       </c>
       <c r="N10">
-        <v>1.050317050635705</v>
+        <v>1.071998630120398</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.016739632297781</v>
+        <v>1.063512019654623</v>
       </c>
       <c r="D11">
-        <v>1.034776298607</v>
+        <v>1.066326404514256</v>
       </c>
       <c r="E11">
-        <v>1.019693472901515</v>
+        <v>1.065627506891078</v>
       </c>
       <c r="F11">
-        <v>1.033701106744239</v>
+        <v>1.076570212893297</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.057268759793701</v>
+        <v>1.056180895575066</v>
       </c>
       <c r="J11">
-        <v>1.045432231430659</v>
+        <v>1.069881885210077</v>
       </c>
       <c r="K11">
-        <v>1.049070890630581</v>
+        <v>1.069784607662352</v>
       </c>
       <c r="L11">
-        <v>1.03425331602738</v>
+        <v>1.069088142861996</v>
       </c>
       <c r="M11">
-        <v>1.048014275920022</v>
+        <v>1.079993156536063</v>
       </c>
       <c r="N11">
-        <v>1.046916865112044</v>
+        <v>1.071401240204243</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.014966492325858</v>
+        <v>1.063205910975523</v>
       </c>
       <c r="D12">
-        <v>1.033386584600082</v>
+        <v>1.066081377426144</v>
       </c>
       <c r="E12">
-        <v>1.018197658987213</v>
+        <v>1.065346558600178</v>
       </c>
       <c r="F12">
-        <v>1.032136540881422</v>
+        <v>1.076281527356194</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.056502337381855</v>
+        <v>1.05607087982551</v>
       </c>
       <c r="J12">
-        <v>1.04415067733313</v>
+        <v>1.069660109853962</v>
       </c>
       <c r="K12">
-        <v>1.047900934409143</v>
+        <v>1.069583958320107</v>
       </c>
       <c r="L12">
-        <v>1.032984332159772</v>
+        <v>1.068851732988328</v>
       </c>
       <c r="M12">
-        <v>1.046672910360558</v>
+        <v>1.079748510170806</v>
       </c>
       <c r="N12">
-        <v>1.045633491060699</v>
+        <v>1.071179149901684</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.015348109647888</v>
+        <v>1.063271576754486</v>
       </c>
       <c r="D13">
-        <v>1.033685629123472</v>
+        <v>1.066133940400055</v>
       </c>
       <c r="E13">
-        <v>1.018519470646363</v>
+        <v>1.06540682199666</v>
       </c>
       <c r="F13">
-        <v>1.032473170344974</v>
+        <v>1.076343451229682</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056667368544657</v>
+        <v>1.056094491521138</v>
       </c>
       <c r="J13">
-        <v>1.04442651968478</v>
+        <v>1.069707690176108</v>
       </c>
       <c r="K13">
-        <v>1.048152754999118</v>
+        <v>1.069627007254515</v>
       </c>
       <c r="L13">
-        <v>1.033257391663561</v>
+        <v>1.068902447602349</v>
       </c>
       <c r="M13">
-        <v>1.046961565756626</v>
+        <v>1.079800992316116</v>
       </c>
       <c r="N13">
-        <v>1.045909725140128</v>
+        <v>1.071226797793345</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.016593634678998</v>
+        <v>1.063486718607741</v>
       </c>
       <c r="D14">
-        <v>1.03466184876814</v>
+        <v>1.066306152223781</v>
       </c>
       <c r="E14">
-        <v>1.019570256526644</v>
+        <v>1.065604283179961</v>
       </c>
       <c r="F14">
-        <v>1.033572238810801</v>
+        <v>1.076546349984538</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.057205690185478</v>
+        <v>1.056171807472459</v>
       </c>
       <c r="J14">
-        <v>1.045326721469674</v>
+        <v>1.069863557134179</v>
       </c>
       <c r="K14">
-        <v>1.048974567903701</v>
+        <v>1.069768025966223</v>
       </c>
       <c r="L14">
-        <v>1.034148806342228</v>
+        <v>1.069068602901045</v>
       </c>
       <c r="M14">
-        <v>1.047903814421509</v>
+        <v>1.079972936093702</v>
       </c>
       <c r="N14">
-        <v>1.046811205314812</v>
+        <v>1.071382886100375</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.017357352761973</v>
+        <v>1.063619261686714</v>
       </c>
       <c r="D15">
-        <v>1.03526058469248</v>
+        <v>1.066412246418682</v>
       </c>
       <c r="E15">
-        <v>1.0202149112785</v>
+        <v>1.065725948388371</v>
       </c>
       <c r="F15">
-        <v>1.034246438395044</v>
+        <v>1.076671363087122</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.057535535817167</v>
+        <v>1.056219406497008</v>
       </c>
       <c r="J15">
-        <v>1.045878624404525</v>
+        <v>1.069959566305317</v>
       </c>
       <c r="K15">
-        <v>1.049478415171831</v>
+        <v>1.069854886011247</v>
       </c>
       <c r="L15">
-        <v>1.034695546104024</v>
+        <v>1.069170965289794</v>
       </c>
       <c r="M15">
-        <v>1.048481672398015</v>
+        <v>1.080078862685877</v>
       </c>
       <c r="N15">
-        <v>1.047363892015135</v>
+        <v>1.071479031615548</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.021747702432739</v>
+        <v>1.064390524626758</v>
       </c>
       <c r="D16">
-        <v>1.038704653228111</v>
+        <v>1.067029590755002</v>
       </c>
       <c r="E16">
-        <v>1.023925906257514</v>
+        <v>1.066434137358874</v>
       </c>
       <c r="F16">
-        <v>1.038126378052379</v>
+        <v>1.077399002143052</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.059428067656671</v>
+        <v>1.056495875728497</v>
       </c>
       <c r="J16">
-        <v>1.049050155289705</v>
+        <v>1.070517991608543</v>
       </c>
       <c r="K16">
-        <v>1.052373830013607</v>
+        <v>1.070360049585732</v>
       </c>
       <c r="L16">
-        <v>1.037840752852528</v>
+        <v>1.069766586133298</v>
       </c>
       <c r="M16">
-        <v>1.051804998600105</v>
+        <v>1.080695194192193</v>
       </c>
       <c r="N16">
-        <v>1.050539926837952</v>
+        <v>1.072038249946756</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.024454976487857</v>
+        <v>1.064874148044303</v>
       </c>
       <c r="D17">
-        <v>1.040830194972495</v>
+        <v>1.067416686336967</v>
       </c>
       <c r="E17">
-        <v>1.026218609159294</v>
+        <v>1.066878406483642</v>
       </c>
       <c r="F17">
-        <v>1.040522490847394</v>
+        <v>1.077855440132257</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060591839378114</v>
+        <v>1.056668789660496</v>
       </c>
       <c r="J17">
-        <v>1.05100477250656</v>
+        <v>1.070867935464244</v>
       </c>
       <c r="K17">
-        <v>1.054158291813563</v>
+        <v>1.070676574844573</v>
       </c>
       <c r="L17">
-        <v>1.03978203463476</v>
+        <v>1.070140052703352</v>
       </c>
       <c r="M17">
-        <v>1.053855456209134</v>
+        <v>1.08108162171082</v>
       </c>
       <c r="N17">
-        <v>1.052497319835452</v>
+        <v>1.072388690762872</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.026017872923445</v>
+        <v>1.065156177264611</v>
       </c>
       <c r="D18">
-        <v>1.042057865888636</v>
+        <v>1.067642419733888</v>
       </c>
       <c r="E18">
-        <v>1.027543693332592</v>
+        <v>1.06713755642656</v>
       </c>
       <c r="F18">
-        <v>1.041907003745339</v>
+        <v>1.078121676613023</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.061262491162734</v>
+        <v>1.056769464729564</v>
       </c>
       <c r="J18">
-        <v>1.052132751959001</v>
+        <v>1.071071929296823</v>
       </c>
       <c r="K18">
-        <v>1.055188075822104</v>
+        <v>1.070861072866339</v>
       </c>
       <c r="L18">
-        <v>1.040903340626709</v>
+        <v>1.070357835649428</v>
       </c>
       <c r="M18">
-        <v>1.055039556468373</v>
+        <v>1.081306953685148</v>
       </c>
       <c r="N18">
-        <v>1.053626901148095</v>
+        <v>1.072592974290092</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.026548086196717</v>
+        <v>1.065252331826896</v>
       </c>
       <c r="D19">
-        <v>1.042474453195837</v>
+        <v>1.067719380061748</v>
       </c>
       <c r="E19">
-        <v>1.027993481878772</v>
+        <v>1.067225922501852</v>
       </c>
       <c r="F19">
-        <v>1.042376908484487</v>
+        <v>1.078212457093739</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.061489806580939</v>
+        <v>1.056803761368862</v>
       </c>
       <c r="J19">
-        <v>1.052515347557411</v>
+        <v>1.07114146520049</v>
       </c>
       <c r="K19">
-        <v>1.055537363975199</v>
+        <v>1.070923960632382</v>
       </c>
       <c r="L19">
-        <v>1.041283844533919</v>
+        <v>1.07043208493003</v>
       </c>
       <c r="M19">
-        <v>1.055441324397541</v>
+        <v>1.081383775149302</v>
       </c>
       <c r="N19">
-        <v>1.054010040076141</v>
+        <v>1.072662608942718</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.02416620170834</v>
+        <v>1.064822266070927</v>
       </c>
       <c r="D20">
-        <v>1.040603407690502</v>
+        <v>1.067375160129163</v>
       </c>
       <c r="E20">
-        <v>1.025973896497679</v>
+        <v>1.066830739043878</v>
       </c>
       <c r="F20">
-        <v>1.040266775965645</v>
+        <v>1.077806468264275</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060467827119577</v>
+        <v>1.056650256538007</v>
       </c>
       <c r="J20">
-        <v>1.050796323077119</v>
+        <v>1.070830402485392</v>
       </c>
       <c r="K20">
-        <v>1.053967988537861</v>
+        <v>1.070642627704937</v>
       </c>
       <c r="L20">
-        <v>1.039574900818046</v>
+        <v>1.070099988850418</v>
       </c>
       <c r="M20">
-        <v>1.053636701263997</v>
+        <v>1.081040168396591</v>
       </c>
       <c r="N20">
-        <v>1.052288574383912</v>
+        <v>1.072351104482885</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.016227631292603</v>
+        <v>1.063423367390427</v>
       </c>
       <c r="D21">
-        <v>1.034374950961665</v>
+        <v>1.066255442468642</v>
       </c>
       <c r="E21">
-        <v>1.019261405856803</v>
+        <v>1.065546135191052</v>
       </c>
       <c r="F21">
-        <v>1.033249212773325</v>
+        <v>1.076486601261022</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.057047551170492</v>
+        <v>1.056149047746057</v>
       </c>
       <c r="J21">
-        <v>1.045062208139727</v>
+        <v>1.069817663537619</v>
       </c>
       <c r="K21">
-        <v>1.048733087393859</v>
+        <v>1.069726504939162</v>
       </c>
       <c r="L21">
-        <v>1.033886828085057</v>
+        <v>1.069019676679314</v>
       </c>
       <c r="M21">
-        <v>1.047626909175179</v>
+        <v>1.07992230578226</v>
       </c>
       <c r="N21">
-        <v>1.046546316345596</v>
+        <v>1.071336927329644</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.011076743006089</v>
+        <v>1.062543262602969</v>
       </c>
       <c r="D22">
-        <v>1.030340113620629</v>
+        <v>1.065550944074994</v>
       </c>
       <c r="E22">
-        <v>1.014921219360092</v>
+        <v>1.064738579837795</v>
       </c>
       <c r="F22">
-        <v>1.028708414331155</v>
+        <v>1.075656771088066</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054817768088668</v>
+        <v>1.055832264605157</v>
       </c>
       <c r="J22">
-        <v>1.041338349742366</v>
+        <v>1.069179797865827</v>
       </c>
       <c r="K22">
-        <v>1.045333571624573</v>
+        <v>1.069149357888624</v>
       </c>
       <c r="L22">
-        <v>1.030202768177221</v>
+        <v>1.068339946169444</v>
       </c>
       <c r="M22">
-        <v>1.043731827107827</v>
+        <v>1.07921886684688</v>
       </c>
       <c r="N22">
-        <v>1.042817169642179</v>
+        <v>1.070698155815433</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.013823151901551</v>
+        <v>1.063009877007665</v>
       </c>
       <c r="D23">
-        <v>1.032490805470226</v>
+        <v>1.065924458733983</v>
       </c>
       <c r="E23">
-        <v>1.017233889665161</v>
+        <v>1.065166668820774</v>
       </c>
       <c r="F23">
-        <v>1.031128308281143</v>
+        <v>1.076096678240546</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056007637089991</v>
+        <v>1.056000354409064</v>
       </c>
       <c r="J23">
-        <v>1.043324164505444</v>
+        <v>1.069518048985626</v>
       </c>
       <c r="K23">
-        <v>1.047146403602857</v>
+        <v>1.069455423457128</v>
       </c>
       <c r="L23">
-        <v>1.032166409821904</v>
+        <v>1.068700331653536</v>
       </c>
       <c r="M23">
-        <v>1.045808203840736</v>
+        <v>1.079591830046601</v>
       </c>
       <c r="N23">
-        <v>1.044805804489996</v>
+        <v>1.07103688729062</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.024296736553997</v>
+        <v>1.064845709487257</v>
       </c>
       <c r="D24">
-        <v>1.040705920460062</v>
+        <v>1.067393924198544</v>
       </c>
       <c r="E24">
-        <v>1.026084509247629</v>
+        <v>1.066852277860971</v>
       </c>
       <c r="F24">
-        <v>1.040382362882625</v>
+        <v>1.077828596531404</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.06052388806572</v>
+        <v>1.056658631422845</v>
       </c>
       <c r="J24">
-        <v>1.050890549743186</v>
+        <v>1.070847362401469</v>
       </c>
       <c r="K24">
-        <v>1.054054012493368</v>
+        <v>1.07065796734486</v>
       </c>
       <c r="L24">
-        <v>1.039668529610578</v>
+        <v>1.070118092147288</v>
       </c>
       <c r="M24">
-        <v>1.053735583874623</v>
+        <v>1.081058899564801</v>
       </c>
       <c r="N24">
-        <v>1.052382934862652</v>
+        <v>1.072368088483988</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.035820163571917</v>
+        <v>1.066973741864891</v>
       </c>
       <c r="D25">
-        <v>1.049767388160729</v>
+        <v>1.069097087013329</v>
       </c>
       <c r="E25">
-        <v>1.035880057077867</v>
+        <v>1.068808938463069</v>
       </c>
       <c r="F25">
-        <v>1.05061152321159</v>
+        <v>1.079838551597708</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065447090224747</v>
+        <v>1.057415361879966</v>
       </c>
       <c r="J25">
-        <v>1.059199376264045</v>
+        <v>1.072385157746879</v>
       </c>
       <c r="K25">
-        <v>1.061639305664593</v>
+        <v>1.072048522900789</v>
       </c>
       <c r="L25">
-        <v>1.047945791938357</v>
+        <v>1.071761219787197</v>
       </c>
       <c r="M25">
-        <v>1.0624718677026</v>
+        <v>1.082758821524309</v>
       </c>
       <c r="N25">
-        <v>1.060703560870207</v>
+        <v>1.073908067675176</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_151/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_151/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.068669265048171</v>
+        <v>1.044564576707262</v>
       </c>
       <c r="D2">
-        <v>1.070453912345782</v>
+        <v>1.056658207918934</v>
       </c>
       <c r="E2">
-        <v>1.070370114642192</v>
+        <v>1.043354744101729</v>
       </c>
       <c r="F2">
-        <v>1.081441882673263</v>
+        <v>1.058407774577452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058013189309711</v>
+        <v>1.069144391322643</v>
       </c>
       <c r="J2">
-        <v>1.073607896811492</v>
+        <v>1.065489432096071</v>
       </c>
       <c r="K2">
-        <v>1.07315370785997</v>
+        <v>1.067380848375088</v>
       </c>
       <c r="L2">
-        <v>1.073070133654963</v>
+        <v>1.054241397712045</v>
       </c>
       <c r="M2">
-        <v>1.084112696005698</v>
+        <v>1.069109226312588</v>
       </c>
       <c r="N2">
-        <v>1.075132543169511</v>
+        <v>1.067002549302994</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.069899380881899</v>
+        <v>1.050681515034604</v>
       </c>
       <c r="D3">
-        <v>1.071438181874338</v>
+        <v>1.061485374355769</v>
       </c>
       <c r="E3">
-        <v>1.07150401731068</v>
+        <v>1.048605428378682</v>
       </c>
       <c r="F3">
-        <v>1.082606192036813</v>
+        <v>1.063879382641767</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058443955918806</v>
+        <v>1.071707485657549</v>
       </c>
       <c r="J3">
-        <v>1.074493543146562</v>
+        <v>1.069879828350086</v>
       </c>
       <c r="K3">
-        <v>1.073953926814216</v>
+        <v>1.071387638410258</v>
       </c>
       <c r="L3">
-        <v>1.074019599382579</v>
+        <v>1.058651988879409</v>
       </c>
       <c r="M3">
-        <v>1.085094613439919</v>
+        <v>1.073755299265324</v>
       </c>
       <c r="N3">
-        <v>1.076019447223962</v>
+        <v>1.071399180423275</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.070694910225125</v>
+        <v>1.054539982749319</v>
       </c>
       <c r="D4">
-        <v>1.072074660466521</v>
+        <v>1.064532974286542</v>
       </c>
       <c r="E4">
-        <v>1.072237900776096</v>
+        <v>1.051927045082246</v>
       </c>
       <c r="F4">
-        <v>1.083359658404341</v>
+        <v>1.067338582568313</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058721165755449</v>
+        <v>1.073313189464068</v>
       </c>
       <c r="J4">
-        <v>1.075065622461784</v>
+        <v>1.072644452297997</v>
       </c>
       <c r="K4">
-        <v>1.074470693502606</v>
+        <v>1.073910268206654</v>
       </c>
       <c r="L4">
-        <v>1.074633550351382</v>
+        <v>1.061436687293369</v>
       </c>
       <c r="M4">
-        <v>1.085729474036999</v>
+        <v>1.07668693950275</v>
       </c>
       <c r="N4">
-        <v>1.076592338957431</v>
+        <v>1.074167730454298</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.071029248169691</v>
+        <v>1.056139319558275</v>
       </c>
       <c r="D5">
-        <v>1.072342139121407</v>
+        <v>1.065796787811613</v>
       </c>
       <c r="E5">
-        <v>1.07254646792852</v>
+        <v>1.053306072804628</v>
       </c>
       <c r="F5">
-        <v>1.083676436253126</v>
+        <v>1.068774225106522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058837340457921</v>
+        <v>1.073976058890069</v>
       </c>
       <c r="J5">
-        <v>1.075305888250761</v>
+        <v>1.073789203379068</v>
       </c>
       <c r="K5">
-        <v>1.074687697151383</v>
+        <v>1.074954698473481</v>
       </c>
       <c r="L5">
-        <v>1.074891556687947</v>
+        <v>1.062591491540157</v>
       </c>
       <c r="M5">
-        <v>1.085996249633062</v>
+        <v>1.07790227631562</v>
       </c>
       <c r="N5">
-        <v>1.076832945951387</v>
+        <v>1.075314107213209</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.071085379030624</v>
+        <v>1.056406550535066</v>
       </c>
       <c r="D6">
-        <v>1.072387044312013</v>
+        <v>1.06600798902333</v>
       </c>
       <c r="E6">
-        <v>1.072598280241405</v>
+        <v>1.053536620709075</v>
       </c>
       <c r="F6">
-        <v>1.083729625894382</v>
+        <v>1.069014208711484</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058856825360458</v>
+        <v>1.074086657101495</v>
       </c>
       <c r="J6">
-        <v>1.075346216114396</v>
+        <v>1.073980407252667</v>
       </c>
       <c r="K6">
-        <v>1.074724118681557</v>
+        <v>1.075129138798385</v>
       </c>
       <c r="L6">
-        <v>1.074934871335469</v>
+        <v>1.062784476272564</v>
       </c>
       <c r="M6">
-        <v>1.086041035440857</v>
+        <v>1.078105353531444</v>
       </c>
       <c r="N6">
-        <v>1.076873331085214</v>
+        <v>1.07550558261824</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.070699378065424</v>
+        <v>1.05456144123077</v>
       </c>
       <c r="D7">
-        <v>1.072078234908936</v>
+        <v>1.064549928798344</v>
       </c>
       <c r="E7">
-        <v>1.072242023696795</v>
+        <v>1.051945538991269</v>
       </c>
       <c r="F7">
-        <v>1.083363891122874</v>
+        <v>1.067357837705007</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058722719518055</v>
+        <v>1.073322093972509</v>
       </c>
       <c r="J7">
-        <v>1.075068833831995</v>
+        <v>1.072659816300406</v>
       </c>
       <c r="K7">
-        <v>1.074473594077489</v>
+        <v>1.073924286260778</v>
       </c>
       <c r="L7">
-        <v>1.074636998230879</v>
+        <v>1.061452179365421</v>
       </c>
       <c r="M7">
-        <v>1.085733039174734</v>
+        <v>1.076703245219213</v>
       </c>
       <c r="N7">
-        <v>1.076595554888155</v>
+        <v>1.074183116275353</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.069085080458847</v>
+        <v>1.046653121932439</v>
       </c>
       <c r="D8">
-        <v>1.070786636326255</v>
+        <v>1.058305768449877</v>
       </c>
       <c r="E8">
-        <v>1.070753287349999</v>
+        <v>1.045145454883979</v>
       </c>
       <c r="F8">
-        <v>1.081835350649703</v>
+        <v>1.060274297046273</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.058159085117703</v>
+        <v>1.070021824123775</v>
       </c>
       <c r="J8">
-        <v>1.073907411600023</v>
+        <v>1.066989449430783</v>
       </c>
       <c r="K8">
-        <v>1.073424359251934</v>
+        <v>1.068749887446984</v>
       </c>
       <c r="L8">
-        <v>1.073391097041646</v>
+        <v>1.055746749090393</v>
       </c>
       <c r="M8">
-        <v>1.084444645050827</v>
+        <v>1.070695320805045</v>
       </c>
       <c r="N8">
-        <v>1.075432483303397</v>
+        <v>1.068504696834376</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.066237028173789</v>
+        <v>1.031902218694751</v>
       </c>
       <c r="D9">
-        <v>1.06850748705325</v>
+        <v>1.046683947004595</v>
       </c>
       <c r="E9">
-        <v>1.068131210865493</v>
+        <v>1.032542707460663</v>
       </c>
       <c r="F9">
-        <v>1.079142421593573</v>
+        <v>1.047127978828074</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057154175347892</v>
+        <v>1.063779205759306</v>
       </c>
       <c r="J9">
-        <v>1.071853168756838</v>
+        <v>1.056376627425609</v>
       </c>
       <c r="K9">
-        <v>1.071567544455901</v>
+        <v>1.05906244108476</v>
       </c>
       <c r="L9">
-        <v>1.071192415985923</v>
+        <v>1.045128979145329</v>
       </c>
       <c r="M9">
-        <v>1.082170400954015</v>
+        <v>1.059500063886766</v>
       </c>
       <c r="N9">
-        <v>1.07337532319975</v>
+        <v>1.057876803404646</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.06433586232277</v>
+        <v>1.021439517618234</v>
       </c>
       <c r="D10">
-        <v>1.066985838034162</v>
+        <v>1.03846277578645</v>
       </c>
       <c r="E10">
-        <v>1.066383932700929</v>
+        <v>1.023665125233131</v>
       </c>
       <c r="F10">
-        <v>1.077347420745972</v>
+        <v>1.03785378795851</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056476310044812</v>
+        <v>1.05929542790856</v>
       </c>
       <c r="J10">
-        <v>1.070478427967093</v>
+        <v>1.048827595148389</v>
       </c>
       <c r="K10">
-        <v>1.070324262126368</v>
+        <v>1.05217064471768</v>
       </c>
       <c r="L10">
-        <v>1.069724373503026</v>
+        <v>1.037619852076316</v>
       </c>
       <c r="M10">
-        <v>1.080651515375335</v>
+        <v>1.051571637577078</v>
       </c>
       <c r="N10">
-        <v>1.071998630120398</v>
+        <v>1.050317050635706</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.063512019654623</v>
+        <v>1.016739632297782</v>
       </c>
       <c r="D11">
-        <v>1.066326404514256</v>
+        <v>1.034776298607</v>
       </c>
       <c r="E11">
-        <v>1.065627506891078</v>
+        <v>1.019693472901515</v>
       </c>
       <c r="F11">
-        <v>1.076570212893297</v>
+        <v>1.03370110674424</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056180895575066</v>
+        <v>1.057268759793702</v>
       </c>
       <c r="J11">
-        <v>1.069881885210077</v>
+        <v>1.04543223143066</v>
       </c>
       <c r="K11">
-        <v>1.069784607662352</v>
+        <v>1.049070890630581</v>
       </c>
       <c r="L11">
-        <v>1.069088142861996</v>
+        <v>1.03425331602738</v>
       </c>
       <c r="M11">
-        <v>1.079993156536063</v>
+        <v>1.048014275920022</v>
       </c>
       <c r="N11">
-        <v>1.071401240204243</v>
+        <v>1.046916865112044</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063205910975523</v>
+        <v>1.014966492325857</v>
       </c>
       <c r="D12">
-        <v>1.066081377426144</v>
+        <v>1.03338658460008</v>
       </c>
       <c r="E12">
-        <v>1.065346558600178</v>
+        <v>1.018197658987212</v>
       </c>
       <c r="F12">
-        <v>1.076281527356194</v>
+        <v>1.03213654088142</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.05607087982551</v>
+        <v>1.056502337381854</v>
       </c>
       <c r="J12">
-        <v>1.069660109853962</v>
+        <v>1.044150677333128</v>
       </c>
       <c r="K12">
-        <v>1.069583958320107</v>
+        <v>1.047900934409142</v>
       </c>
       <c r="L12">
-        <v>1.068851732988328</v>
+        <v>1.032984332159771</v>
       </c>
       <c r="M12">
-        <v>1.079748510170806</v>
+        <v>1.046672910360557</v>
       </c>
       <c r="N12">
-        <v>1.071179149901684</v>
+        <v>1.045633491060698</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063271576754486</v>
+        <v>1.015348109647886</v>
       </c>
       <c r="D13">
-        <v>1.066133940400055</v>
+        <v>1.03368562912347</v>
       </c>
       <c r="E13">
-        <v>1.06540682199666</v>
+        <v>1.018519470646362</v>
       </c>
       <c r="F13">
-        <v>1.076343451229682</v>
+        <v>1.032473170344973</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.056094491521138</v>
+        <v>1.056667368544656</v>
       </c>
       <c r="J13">
-        <v>1.069707690176108</v>
+        <v>1.044426519684778</v>
       </c>
       <c r="K13">
-        <v>1.069627007254515</v>
+        <v>1.048152754999117</v>
       </c>
       <c r="L13">
-        <v>1.068902447602349</v>
+        <v>1.03325739166356</v>
       </c>
       <c r="M13">
-        <v>1.079800992316116</v>
+        <v>1.046961565756624</v>
       </c>
       <c r="N13">
-        <v>1.071226797793345</v>
+        <v>1.045909725140127</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.063486718607741</v>
+        <v>1.016593634678999</v>
       </c>
       <c r="D14">
-        <v>1.066306152223781</v>
+        <v>1.03466184876814</v>
       </c>
       <c r="E14">
-        <v>1.065604283179961</v>
+        <v>1.019570256526645</v>
       </c>
       <c r="F14">
-        <v>1.076546349984538</v>
+        <v>1.033572238810802</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056171807472459</v>
+        <v>1.057205690185479</v>
       </c>
       <c r="J14">
-        <v>1.069863557134179</v>
+        <v>1.045326721469675</v>
       </c>
       <c r="K14">
-        <v>1.069768025966223</v>
+        <v>1.048974567903702</v>
       </c>
       <c r="L14">
-        <v>1.069068602901045</v>
+        <v>1.034148806342228</v>
       </c>
       <c r="M14">
-        <v>1.079972936093702</v>
+        <v>1.04790381442151</v>
       </c>
       <c r="N14">
-        <v>1.071382886100375</v>
+        <v>1.046811205314813</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.063619261686714</v>
+        <v>1.017357352761972</v>
       </c>
       <c r="D15">
-        <v>1.066412246418682</v>
+        <v>1.03526058469248</v>
       </c>
       <c r="E15">
-        <v>1.065725948388371</v>
+        <v>1.020214911278499</v>
       </c>
       <c r="F15">
-        <v>1.076671363087122</v>
+        <v>1.034246438395043</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056219406497008</v>
+        <v>1.057535535817167</v>
       </c>
       <c r="J15">
-        <v>1.069959566305317</v>
+        <v>1.045878624404525</v>
       </c>
       <c r="K15">
-        <v>1.069854886011247</v>
+        <v>1.049478415171831</v>
       </c>
       <c r="L15">
-        <v>1.069170965289794</v>
+        <v>1.034695546104023</v>
       </c>
       <c r="M15">
-        <v>1.080078862685877</v>
+        <v>1.048481672398014</v>
       </c>
       <c r="N15">
-        <v>1.071479031615548</v>
+        <v>1.047363892015134</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.064390524626758</v>
+        <v>1.021747702432737</v>
       </c>
       <c r="D16">
-        <v>1.067029590755002</v>
+        <v>1.038704653228109</v>
       </c>
       <c r="E16">
-        <v>1.066434137358874</v>
+        <v>1.023925906257513</v>
       </c>
       <c r="F16">
-        <v>1.077399002143052</v>
+        <v>1.038126378052378</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056495875728497</v>
+        <v>1.059428067656669</v>
       </c>
       <c r="J16">
-        <v>1.070517991608543</v>
+        <v>1.049050155289704</v>
       </c>
       <c r="K16">
-        <v>1.070360049585732</v>
+        <v>1.052373830013606</v>
       </c>
       <c r="L16">
-        <v>1.069766586133298</v>
+        <v>1.037840752852527</v>
       </c>
       <c r="M16">
-        <v>1.080695194192193</v>
+        <v>1.051804998600104</v>
       </c>
       <c r="N16">
-        <v>1.072038249946756</v>
+        <v>1.05053992683795</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.064874148044303</v>
+        <v>1.024454976487857</v>
       </c>
       <c r="D17">
-        <v>1.067416686336967</v>
+        <v>1.040830194972494</v>
       </c>
       <c r="E17">
-        <v>1.066878406483642</v>
+        <v>1.026218609159294</v>
       </c>
       <c r="F17">
-        <v>1.077855440132257</v>
+        <v>1.040522490847394</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.056668789660496</v>
+        <v>1.060591839378114</v>
       </c>
       <c r="J17">
-        <v>1.070867935464244</v>
+        <v>1.05100477250656</v>
       </c>
       <c r="K17">
-        <v>1.070676574844573</v>
+        <v>1.054158291813563</v>
       </c>
       <c r="L17">
-        <v>1.070140052703352</v>
+        <v>1.03978203463476</v>
       </c>
       <c r="M17">
-        <v>1.08108162171082</v>
+        <v>1.053855456209134</v>
       </c>
       <c r="N17">
-        <v>1.072388690762872</v>
+        <v>1.052497319835452</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.065156177264611</v>
+        <v>1.026017872923446</v>
       </c>
       <c r="D18">
-        <v>1.067642419733888</v>
+        <v>1.042057865888637</v>
       </c>
       <c r="E18">
-        <v>1.06713755642656</v>
+        <v>1.027543693332593</v>
       </c>
       <c r="F18">
-        <v>1.078121676613023</v>
+        <v>1.041907003745341</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056769464729564</v>
+        <v>1.061262491162735</v>
       </c>
       <c r="J18">
-        <v>1.071071929296823</v>
+        <v>1.052132751959002</v>
       </c>
       <c r="K18">
-        <v>1.070861072866339</v>
+        <v>1.055188075822105</v>
       </c>
       <c r="L18">
-        <v>1.070357835649428</v>
+        <v>1.04090334062671</v>
       </c>
       <c r="M18">
-        <v>1.081306953685148</v>
+        <v>1.055039556468375</v>
       </c>
       <c r="N18">
-        <v>1.072592974290092</v>
+        <v>1.053626901148098</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.065252331826896</v>
+        <v>1.026548086196717</v>
       </c>
       <c r="D19">
-        <v>1.067719380061748</v>
+        <v>1.042474453195836</v>
       </c>
       <c r="E19">
-        <v>1.067225922501852</v>
+        <v>1.027993481878772</v>
       </c>
       <c r="F19">
-        <v>1.078212457093739</v>
+        <v>1.042376908484487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.056803761368862</v>
+        <v>1.061489806580938</v>
       </c>
       <c r="J19">
-        <v>1.07114146520049</v>
+        <v>1.05251534755741</v>
       </c>
       <c r="K19">
-        <v>1.070923960632382</v>
+        <v>1.055537363975199</v>
       </c>
       <c r="L19">
-        <v>1.07043208493003</v>
+        <v>1.041283844533919</v>
       </c>
       <c r="M19">
-        <v>1.081383775149302</v>
+        <v>1.055441324397541</v>
       </c>
       <c r="N19">
-        <v>1.072662608942718</v>
+        <v>1.05401004007614</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.064822266070927</v>
+        <v>1.02416620170834</v>
       </c>
       <c r="D20">
-        <v>1.067375160129163</v>
+        <v>1.040603407690501</v>
       </c>
       <c r="E20">
-        <v>1.066830739043878</v>
+        <v>1.025973896497679</v>
       </c>
       <c r="F20">
-        <v>1.077806468264275</v>
+        <v>1.040266775965645</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.056650256538007</v>
+        <v>1.060467827119578</v>
       </c>
       <c r="J20">
-        <v>1.070830402485392</v>
+        <v>1.050796323077119</v>
       </c>
       <c r="K20">
-        <v>1.070642627704937</v>
+        <v>1.053967988537861</v>
       </c>
       <c r="L20">
-        <v>1.070099988850418</v>
+        <v>1.039574900818046</v>
       </c>
       <c r="M20">
-        <v>1.081040168396591</v>
+        <v>1.053636701263997</v>
       </c>
       <c r="N20">
-        <v>1.072351104482885</v>
+        <v>1.052288574383911</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.063423367390427</v>
+        <v>1.016227631292604</v>
       </c>
       <c r="D21">
-        <v>1.066255442468642</v>
+        <v>1.034374950961666</v>
       </c>
       <c r="E21">
-        <v>1.065546135191052</v>
+        <v>1.019261405856805</v>
       </c>
       <c r="F21">
-        <v>1.076486601261022</v>
+        <v>1.033249212773327</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.056149047746057</v>
+        <v>1.057047551170493</v>
       </c>
       <c r="J21">
-        <v>1.069817663537619</v>
+        <v>1.045062208139728</v>
       </c>
       <c r="K21">
-        <v>1.069726504939162</v>
+        <v>1.04873308739386</v>
       </c>
       <c r="L21">
-        <v>1.069019676679314</v>
+        <v>1.033886828085059</v>
       </c>
       <c r="M21">
-        <v>1.07992230578226</v>
+        <v>1.047626909175181</v>
       </c>
       <c r="N21">
-        <v>1.071336927329644</v>
+        <v>1.046546316345597</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062543262602969</v>
+        <v>1.011076743006089</v>
       </c>
       <c r="D22">
-        <v>1.065550944074994</v>
+        <v>1.030340113620628</v>
       </c>
       <c r="E22">
-        <v>1.064738579837795</v>
+        <v>1.014921219360092</v>
       </c>
       <c r="F22">
-        <v>1.075656771088066</v>
+        <v>1.028708414331155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.055832264605157</v>
+        <v>1.054817768088668</v>
       </c>
       <c r="J22">
-        <v>1.069179797865827</v>
+        <v>1.041338349742366</v>
       </c>
       <c r="K22">
-        <v>1.069149357888624</v>
+        <v>1.045333571624573</v>
       </c>
       <c r="L22">
-        <v>1.068339946169444</v>
+        <v>1.030202768177221</v>
       </c>
       <c r="M22">
-        <v>1.07921886684688</v>
+        <v>1.043731827107827</v>
       </c>
       <c r="N22">
-        <v>1.070698155815433</v>
+        <v>1.042817169642179</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063009877007665</v>
+        <v>1.013823151901549</v>
       </c>
       <c r="D23">
-        <v>1.065924458733983</v>
+        <v>1.032490805470224</v>
       </c>
       <c r="E23">
-        <v>1.065166668820774</v>
+        <v>1.01723388966516</v>
       </c>
       <c r="F23">
-        <v>1.076096678240546</v>
+        <v>1.031128308281141</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.056000354409064</v>
+        <v>1.05600763708999</v>
       </c>
       <c r="J23">
-        <v>1.069518048985626</v>
+        <v>1.043324164505443</v>
       </c>
       <c r="K23">
-        <v>1.069455423457128</v>
+        <v>1.047146403602855</v>
       </c>
       <c r="L23">
-        <v>1.068700331653536</v>
+        <v>1.032166409821903</v>
       </c>
       <c r="M23">
-        <v>1.079591830046601</v>
+        <v>1.045808203840735</v>
       </c>
       <c r="N23">
-        <v>1.07103688729062</v>
+        <v>1.044805804489995</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.064845709487257</v>
+        <v>1.024296736553997</v>
       </c>
       <c r="D24">
-        <v>1.067393924198544</v>
+        <v>1.040705920460063</v>
       </c>
       <c r="E24">
-        <v>1.066852277860971</v>
+        <v>1.026084509247629</v>
       </c>
       <c r="F24">
-        <v>1.077828596531404</v>
+        <v>1.040382362882626</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.056658631422845</v>
+        <v>1.060523888065721</v>
       </c>
       <c r="J24">
-        <v>1.070847362401469</v>
+        <v>1.050890549743186</v>
       </c>
       <c r="K24">
-        <v>1.07065796734486</v>
+        <v>1.054054012493368</v>
       </c>
       <c r="L24">
-        <v>1.070118092147288</v>
+        <v>1.039668529610578</v>
       </c>
       <c r="M24">
-        <v>1.081058899564801</v>
+        <v>1.053735583874623</v>
       </c>
       <c r="N24">
-        <v>1.072368088483988</v>
+        <v>1.052382934862651</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.066973741864891</v>
+        <v>1.035820163571916</v>
       </c>
       <c r="D25">
-        <v>1.069097087013329</v>
+        <v>1.049767388160728</v>
       </c>
       <c r="E25">
-        <v>1.068808938463069</v>
+        <v>1.035880057077865</v>
       </c>
       <c r="F25">
-        <v>1.079838551597708</v>
+        <v>1.050611523211588</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.057415361879966</v>
+        <v>1.065447090224746</v>
       </c>
       <c r="J25">
-        <v>1.072385157746879</v>
+        <v>1.059199376264044</v>
       </c>
       <c r="K25">
-        <v>1.072048522900789</v>
+        <v>1.061639305664591</v>
       </c>
       <c r="L25">
-        <v>1.071761219787197</v>
+        <v>1.047945791938356</v>
       </c>
       <c r="M25">
-        <v>1.082758821524309</v>
+        <v>1.062471867702599</v>
       </c>
       <c r="N25">
-        <v>1.073908067675176</v>
+        <v>1.060703560870206</v>
       </c>
     </row>
   </sheetData>
